--- a/biology/Zoologie/Hottentotta/Hottentotta.xlsx
+++ b/biology/Zoologie/Hottentotta/Hottentotta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique et en Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique et en Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (24/12/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (24/12/2022) :
 Hottentotta akbarii Yağmur, Moradi, Tabatabaei &amp; Jafari, 2022
 Hottentotta alticola (Pocock, 1895)
 Hottentotta arenaceus (Purcell, 1902)
@@ -633,12 +649,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Birula en 1908 comme un sous-genre de Buthus. Il a été élevé au rang de genre par Pallary en 1925[3].
-Dasyscorpio[4] a été placé en synonymie par Vachon en 1949[5].
-Buthotus[5] a été placé en synonymie par Francke en 1985[6].
-Balfourianus[7] et Deccanobuthus[8] ont été placés en synonymie par Kovařík en 2007[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Birula en 1908 comme un sous-genre de Buthus. Il a été élevé au rang de genre par Pallary en 1925.
+Dasyscorpio a été placé en synonymie par Vachon en 1949.
+Buthotus a été placé en synonymie par Francke en 1985.
+Balfourianus et Deccanobuthus ont été placés en synonymie par Kovařík en 2007.
 </t>
         </is>
       </c>
@@ -667,7 +685,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Birula, 1908 : « Ergebnisse der mit Sudvention aus der Erbschaft Treitl unternommenen zoologischen Forshungreise Dr. F. Werner's nach dem agyptischen Sudan und Nord-Uganda. XIV. Scorpiones und Solifugae. » Sitzungsberichte der Kaiserlichen Akademie der Wissenschaften. Mathematisch-Naturwissenschaftliche Classe, vol. 117, no 2, p. 121-152 (texte intégral).</t>
         </is>
